--- a/Stocks/CEATLTD.xlsx
+++ b/Stocks/CEATLTD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1580.1666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1891.1451774381703</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1856.185365506303</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>75.90086857566979</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>49</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>65.299999999999955</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.75038284839203728</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1860.5629420243822</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>12.756822426849112</v>
       </c>
       <c r="Y67">
         <v>11.391870514481145</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1657.65</v>
+      </c>
+      <c r="D83">
+        <v>1671</v>
+      </c>
+      <c r="E83">
+        <v>1640.5</v>
+      </c>
+      <c r="F83">
+        <v>1646</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1652.5</v>
+      </c>
+      <c r="H83">
+        <v>1655.9272302527481</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>1705.9456190626117</v>
+      </c>
+      <c r="K83">
+        <v>1652.517272581586</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>33.314027444858326</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>5.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>30.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.18032786885245902</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V83">
+        <v>1694.3614715124336</v>
+      </c>
+      <c r="W83">
+        <v>1744.6149090460558</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-50.253437533622218</v>
+      </c>
+      <c r="Y83">
+        <v>-41.429805651768262</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1639.9</v>
+      </c>
+      <c r="D84">
+        <v>1674.9</v>
+      </c>
+      <c r="E84">
+        <v>1629.8</v>
+      </c>
+      <c r="F84">
+        <v>1649</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1651.2333333333333</v>
+      </c>
+      <c r="H84">
+        <v>1653.5802817930407</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1699.0465926042536</v>
+      </c>
+      <c r="K84">
+        <v>1647.4689897856779</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>35.244930146231226</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>19.200000000000045</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>45.100000000000136</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.42572062084257178</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1687.3827835874438</v>
+      </c>
+      <c r="W84">
+        <v>1737.5323231907923</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-50.149539603348558</v>
+      </c>
+      <c r="Y84">
+        <v>-43.173752442084322</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1664</v>
+      </c>
+      <c r="D85">
+        <v>1670.25</v>
+      </c>
+      <c r="E85">
+        <v>1651.55</v>
+      </c>
+      <c r="F85">
+        <v>1660.9</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1660.9000000000003</v>
+      </c>
+      <c r="H85">
+        <v>1657.2401408965206</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1692.6473498033083</v>
+      </c>
+      <c r="K85">
+        <v>1648.3758809444162</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>43.374599903462652</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>9.3500000000001364</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>18.700000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.50000000000000611</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1683.3085091893756</v>
+      </c>
+      <c r="W85">
+        <v>1731.8558548062892</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-48.547345616913617</v>
+      </c>
+      <c r="Y85">
+        <v>-44.248471077050183</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1660</v>
+      </c>
+      <c r="D86">
+        <v>1720</v>
+      </c>
+      <c r="E86">
+        <v>1655</v>
+      </c>
+      <c r="F86">
+        <v>1711.25</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1695.4166666666667</v>
+      </c>
+      <c r="H86">
+        <v>1676.3284037815938</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1698.7257165136843</v>
+      </c>
+      <c r="K86">
+        <v>1649.8479074012125</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>65.970111551199821</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>56.25</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>65</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.86538461538461542</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>1687.6072000833178</v>
+      </c>
+      <c r="W86">
+        <v>1730.3294951910086</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-42.722295107690798</v>
+      </c>
+      <c r="Y86">
+        <v>-43.943235883178303</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1706</v>
+      </c>
+      <c r="D87">
+        <v>1738.45</v>
+      </c>
+      <c r="E87">
+        <v>1692.05</v>
+      </c>
+      <c r="F87">
+        <v>1730</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1720.1666666666667</v>
+      </c>
+      <c r="H87">
+        <v>1698.2475352241304</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1707.553335066199</v>
+      </c>
+      <c r="K87">
+        <v>1659.226150200943</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>71.300895196367719</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>37.950000000000045</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>46.400000000000091</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.8178879310344821</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>1694.129169301269</v>
+      </c>
+      <c r="W87">
+        <v>1730.3050881398228</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-36.175918838553798</v>
+      </c>
+      <c r="Y87">
+        <v>-42.389772474253405</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1725.5</v>
+      </c>
+      <c r="D88">
+        <v>1729</v>
+      </c>
+      <c r="E88">
+        <v>1680</v>
+      </c>
+      <c r="F88">
+        <v>1700</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1703</v>
+      </c>
+      <c r="H88">
+        <v>1700.6237676120652</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1712.3192606070436</v>
+      </c>
+      <c r="K88">
+        <v>1663.8425612674002</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>54.291395742279171</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>49</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1695.0323740241506</v>
+      </c>
+      <c r="W88">
+        <v>1728.0602667961323</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-33.027892771981669</v>
+      </c>
+      <c r="Y88">
+        <v>-40.517396533799058</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1708</v>
+      </c>
+      <c r="D89">
+        <v>1751</v>
+      </c>
+      <c r="E89">
+        <v>1703.6</v>
+      </c>
+      <c r="F89">
+        <v>1729.75</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1728.1166666666668</v>
+      </c>
+      <c r="H89">
+        <v>1714.3702171393661</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1720.9149804721451</v>
+      </c>
+      <c r="K89">
+        <v>1672.6775476524224</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>64.723237687400754</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>26.150000000000091</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>47.400000000000091</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.55168776371308104</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1700.3735472512044</v>
+      </c>
+      <c r="W89">
+        <v>1728.1854322186409</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-27.811884967436526</v>
+      </c>
+      <c r="Y89">
+        <v>-37.976294220526555</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1717.1</v>
+      </c>
+      <c r="D90">
+        <v>1739.9</v>
+      </c>
+      <c r="E90">
+        <v>1706.15</v>
+      </c>
+      <c r="F90">
+        <v>1727.55</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1724.5333333333335</v>
+      </c>
+      <c r="H90">
+        <v>1719.4517752363499</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1725.1338737005574</v>
+      </c>
+      <c r="K90">
+        <v>1680.1158703963285</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>63.386019598785637</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>21.399999999999864</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>33.75</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.63407407407407002</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1704.5545399817884</v>
+      </c>
+      <c r="W90">
+        <v>1728.1383631654082</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-23.58382318361987</v>
+      </c>
+      <c r="Y90">
+        <v>-35.097800013145218</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1733.9</v>
+      </c>
+      <c r="D91">
+        <v>1758.3</v>
+      </c>
+      <c r="E91">
+        <v>1728.05</v>
+      </c>
+      <c r="F91">
+        <v>1733</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1739.7833333333335</v>
+      </c>
+      <c r="H91">
+        <v>1729.6175542848418</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1732.5041239893224</v>
+      </c>
+      <c r="K91">
+        <v>1690.7678991971445</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>65.587629802158091</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>4.9500000000000455</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>30.25</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.16363636363636513</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1708.9307645999747</v>
+      </c>
+      <c r="W91">
+        <v>1728.4984844124151</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-19.567719812440373</v>
+      </c>
+      <c r="Y91">
+        <v>-31.991783973004249</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1750</v>
+      </c>
+      <c r="D92">
+        <v>1750</v>
+      </c>
+      <c r="E92">
+        <v>1714.3</v>
+      </c>
+      <c r="F92">
+        <v>1718.7</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1727.6666666666667</v>
+      </c>
+      <c r="H92">
+        <v>1728.6421104757542</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1736.3920964361396</v>
+      </c>
+      <c r="K92">
+        <v>1695.9972549311124</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>54.783437360439969</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4.4000000000000909</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>35.700000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.12324929971989035</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1710.4337238922863</v>
+      </c>
+      <c r="W92">
+        <v>1727.7726707522363</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-17.338946859950056</v>
+      </c>
+      <c r="Y92">
+        <v>-29.061216550393411</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1733.9</v>
+      </c>
+      <c r="D93">
+        <v>1764.9</v>
+      </c>
+      <c r="E93">
+        <v>1721</v>
+      </c>
+      <c r="F93">
+        <v>1748.3</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1744.7333333333333</v>
+      </c>
+      <c r="H93">
+        <v>1736.6877219045437</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1742.7271861169975</v>
+      </c>
+      <c r="K93">
+        <v>1701.5534205019762</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>68.296270520072852</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>27.299999999999955</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>43.900000000000091</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.62186788154897266</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1716.2593048319345</v>
+      </c>
+      <c r="W93">
+        <v>1729.2932136594782</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-13.033908827543655</v>
+      </c>
+      <c r="Y93">
+        <v>-25.855755005823461</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1756.6</v>
+      </c>
+      <c r="D94">
+        <v>1783.1</v>
+      </c>
+      <c r="E94">
+        <v>1751.05</v>
+      </c>
+      <c r="F94">
+        <v>1781</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1771.7166666666665</v>
+      </c>
+      <c r="H94">
+        <v>1754.2021942856049</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1751.6989225354425</v>
+      </c>
+      <c r="K94">
+        <v>1712.5526603904259</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>77.557764373783471</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>29.950000000000045</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>32.049999999999955</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.93447737909516659</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>1726.2194117808676</v>
+      </c>
+      <c r="W94">
+        <v>1733.1233459809982</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-6.9039342001306068</v>
+      </c>
+      <c r="Y94">
+        <v>-22.065390844684892</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>1754.7</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>1763.3000000000002</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>1767.0500000000002</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>1770.8500000000001</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1790.5</v>
+      </c>
+      <c r="D95">
+        <v>1794.2</v>
+      </c>
+      <c r="E95">
+        <v>1755</v>
+      </c>
+      <c r="F95">
+        <v>1755.05</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1768.0833333333333</v>
+      </c>
+      <c r="H95">
+        <v>1761.1427638094692</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1761.1436064164552</v>
+      </c>
+      <c r="K95">
+        <v>1721.9854025258869</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>60.132493907746195</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>4.9999999999954525E-2</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>39.200000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>1.2755102040804712E-3</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1730.6548868915033</v>
+      </c>
+      <c r="W95">
+        <v>1734.7475425749983</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-4.0926556834949679</v>
+      </c>
+      <c r="Y95">
+        <v>-18.470843812446908</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1765</v>
+      </c>
+      <c r="D96">
+        <v>1779.4</v>
+      </c>
+      <c r="E96">
+        <v>1751</v>
+      </c>
+      <c r="F96">
+        <v>1763</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1764.4666666666665</v>
+      </c>
+      <c r="H96">
+        <v>1762.8047152380677</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1765.200582768354</v>
+      </c>
+      <c r="K96">
+        <v>1728.4330908534675</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>63.290898617741163</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>28.400000000000091</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.42253521126760429</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1735.6310581389644</v>
+      </c>
+      <c r="W96">
+        <v>1736.8403171990726</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-1.209259060108252</v>
+      </c>
+      <c r="Y96">
+        <v>-15.018526861979177</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1763</v>
+      </c>
+      <c r="D97">
+        <v>1774.6</v>
+      </c>
+      <c r="E97">
+        <v>1751</v>
+      </c>
+      <c r="F97">
+        <v>1760.2</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1761.9333333333334</v>
+      </c>
+      <c r="H97">
+        <v>1762.3690242857006</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1767.2893421531642</v>
+      </c>
+      <c r="K97">
+        <v>1733.4479595526971</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>61.157844873305898</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>9.2000000000000455</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>23.599999999999909</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.38983050847457967</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1739.4108953483544</v>
+      </c>
+      <c r="W97">
+        <v>1738.5706640732153</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>0.84023127513910367</v>
+      </c>
+      <c r="Y97">
+        <v>-11.846775234555521</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1781.95</v>
+      </c>
+      <c r="D98">
+        <v>1804.8</v>
+      </c>
+      <c r="E98">
+        <v>1764.25</v>
+      </c>
+      <c r="F98">
+        <v>1785</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1784.6833333333334</v>
+      </c>
+      <c r="H98">
+        <v>1773.526178809517</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1775.6250438969055</v>
+      </c>
+      <c r="K98">
+        <v>1740.2928574298755</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>71.712760502537435</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>20.75</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>40.549999999999955</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.51171393341553695</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1746.4246037562998</v>
+      </c>
+      <c r="W98">
+        <v>1742.009874141866</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>4.4147296144337815</v>
+      </c>
+      <c r="Y98">
+        <v>-8.5944742647576593</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1790.05</v>
+      </c>
+      <c r="D99">
+        <v>1798</v>
+      </c>
+      <c r="E99">
+        <v>1774</v>
+      </c>
+      <c r="F99">
+        <v>1775.55</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1782.5166666666667</v>
+      </c>
+      <c r="H99">
+        <v>1778.0214227380918</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1780.5972563642599</v>
+      </c>
+      <c r="K99">
+        <v>1747.7833335565699</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>63.494536984014026</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.5499999999999545</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>6.4583333333331439E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1750.9054339476384</v>
+      </c>
+      <c r="W99">
+        <v>1744.4943279091351</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>6.4111060385032488</v>
+      </c>
+      <c r="Y99">
+        <v>-5.5933582041054777</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1808</v>
+      </c>
+      <c r="D100">
+        <v>1830</v>
+      </c>
+      <c r="E100">
+        <v>1761.75</v>
+      </c>
+      <c r="F100">
+        <v>1768</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1786.5833333333333</v>
+      </c>
+      <c r="H100">
+        <v>1782.3023780357125</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1791.5756438388689</v>
+      </c>
+      <c r="K100">
+        <v>1750.8870372106655</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>56.973999820627988</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>6.25</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>68.25</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>9.1575091575091569E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1753.5353671864632</v>
+      </c>
+      <c r="W100">
+        <v>1746.2354888047548</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>7.2998783817083677</v>
+      </c>
+      <c r="Y100">
+        <v>-3.0147108869427086</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1772.9</v>
+      </c>
+      <c r="D101">
+        <v>1785</v>
+      </c>
+      <c r="E101">
+        <v>1727.65</v>
+      </c>
+      <c r="F101">
+        <v>1740</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1750.8833333333332</v>
+      </c>
+      <c r="H101">
+        <v>1766.5928556845229</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1790.1143896524536</v>
+      </c>
+      <c r="K101">
+        <v>1745.723251163851</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>38.598517962511572</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>12.349999999999909</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>57.349999999999909</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.21534437663469796</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1751.4530030039305</v>
+      </c>
+      <c r="W101">
+        <v>1745.7736007451433</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>5.6794022587871495</v>
+      </c>
+      <c r="Y101">
+        <v>-1.275888257796737</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1745.2</v>
+      </c>
+      <c r="D102">
+        <v>1773.8</v>
+      </c>
+      <c r="E102">
+        <v>1727.55</v>
+      </c>
+      <c r="F102">
+        <v>1732</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1744.45</v>
+      </c>
+      <c r="H102">
+        <v>1755.5214278422613</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1786.4889697296862</v>
+      </c>
+      <c r="K102">
+        <v>1741.6847509052175</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>34.611695722595456</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>4.4500000000000455</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>46.25</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>9.6216216216217204E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1748.4602333110181</v>
+      </c>
+      <c r="W102">
+        <v>1744.7533340232808</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>3.7068992877373148</v>
+      </c>
+      <c r="Y102">
+        <v>-0.27933074868992658</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1734.8</v>
+      </c>
+      <c r="D103">
+        <v>1738.95</v>
+      </c>
+      <c r="E103">
+        <v>1667.5</v>
+      </c>
+      <c r="F103">
+        <v>1682.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1696.3166666666666</v>
+      </c>
+      <c r="H103">
+        <v>1725.919047254464</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1775.9247542342005</v>
+      </c>
+      <c r="K103">
+        <v>1725.1992507040579</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>19.240693430280853</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>71.450000000000045</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.20993701889433156</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1738.312505109323</v>
+      </c>
+      <c r="W103">
+        <v>1740.1419759474823</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-1.8294708381592955</v>
+      </c>
+      <c r="Y103">
+        <v>-0.58935876658380038</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1650.4</v>
+      </c>
+      <c r="D104">
+        <v>1688.95</v>
+      </c>
+      <c r="E104">
+        <v>1643</v>
+      </c>
+      <c r="F104">
+        <v>1671</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1667.6499999999999</v>
+      </c>
+      <c r="H104">
+        <v>1696.7845236272319</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1756.5970310710447</v>
+      </c>
+      <c r="K104">
+        <v>1706.9327505476006</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>17.042727014280636</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>28</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>45.950000000000045</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.6093579978237208</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1727.956735092504</v>
+      </c>
+      <c r="W104">
+        <v>1735.0203480995206</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-7.0636130070165564</v>
+      </c>
+      <c r="Y104">
+        <v>-1.8842096146703518</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1680</v>
+      </c>
+      <c r="D105">
+        <v>1693</v>
+      </c>
+      <c r="E105">
+        <v>1656.75</v>
+      </c>
+      <c r="F105">
+        <v>1666</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1671.9166666666667</v>
+      </c>
+      <c r="H105">
+        <v>1684.3505951469492</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1742.4643574997015</v>
+      </c>
+      <c r="K105">
+        <v>1695.7810282036894</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>16.046490246817694</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>9.25</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>36.25</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.25517241379310346</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1718.4249296936573</v>
+      </c>
+      <c r="W105">
+        <v>1729.9077297217782</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-11.482800028120892</v>
+      </c>
+      <c r="Y105">
+        <v>-3.8039276973604599</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1660</v>
+      </c>
+      <c r="D106">
+        <v>1706.65</v>
+      </c>
+      <c r="E106">
+        <v>1660</v>
+      </c>
+      <c r="F106">
+        <v>1700</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1688.8833333333332</v>
+      </c>
+      <c r="H106">
+        <v>1686.6169642401412</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1734.5056113886567</v>
+      </c>
+      <c r="K106">
+        <v>1687.8296886028695</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>43.91394469380586</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>46.650000000000091</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.85744908896034133</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1715.5903251254024</v>
+      </c>
+      <c r="W106">
+        <v>1727.6923423349799</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-12.102017209577525</v>
+      </c>
+      <c r="Y106">
+        <v>-5.4635455998038731</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1706.25</v>
+      </c>
+      <c r="D107">
+        <v>1734.4</v>
+      </c>
+      <c r="E107">
+        <v>1704.55</v>
+      </c>
+      <c r="F107">
+        <v>1707.55</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1715.5</v>
+      </c>
+      <c r="H107">
+        <v>1701.0584821200705</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1734.4821421911774</v>
+      </c>
+      <c r="K107">
+        <v>1691.5453133577873</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>48.645610480955852</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>29.850000000000136</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.10050251256281362</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1714.3533520291867</v>
+      </c>
+      <c r="W107">
+        <v>1726.2003169768332</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-11.846964947646484</v>
+      </c>
+      <c r="Y107">
+        <v>-6.7402294693723954</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
